--- a/testData/Study.xlsx
+++ b/testData/Study.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\git\EIDSA_IntegrationTest\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeethumolPS\eclipse-workspace\EndToEnd_EIDSA\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF89D37-FB82-45CA-AA10-2F69C84A26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E37926-2836-459E-97B8-244F244698F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>StudyId</t>
   </si>
@@ -33,7 +34,7 @@
     <t>Study name</t>
   </si>
   <si>
-    <t>Del01</t>
+    <t>Del02</t>
   </si>
 </sst>
 </file>
@@ -353,8 +354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,4 +382,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5EEE3E-F02E-40C1-A4C4-7A0B41AAA8CB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>